--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.9502464867192</v>
+        <v>14.52107966666667</v>
       </c>
       <c r="H2">
-        <v>8.9502464867192</v>
+        <v>43.563239</v>
       </c>
       <c r="I2">
-        <v>0.1849146167542537</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="J2">
-        <v>0.1849146167542537</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.77203084652974</v>
+        <v>0.010413</v>
       </c>
       <c r="N2">
-        <v>2.77203084652974</v>
+        <v>0.031239</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.003341482647480266</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.003341482647480266</v>
       </c>
       <c r="Q2">
-        <v>24.81035934523005</v>
+        <v>0.151208002569</v>
       </c>
       <c r="R2">
-        <v>24.81035934523005</v>
+        <v>1.360872023121</v>
       </c>
       <c r="S2">
-        <v>0.1849146167542537</v>
+        <v>0.0007478221009312915</v>
       </c>
       <c r="T2">
-        <v>0.1849146167542537</v>
+        <v>0.0007478221009312915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>38.5724489795571</v>
+        <v>14.52107966666667</v>
       </c>
       <c r="H3">
-        <v>38.5724489795571</v>
+        <v>43.563239</v>
       </c>
       <c r="I3">
-        <v>0.7969176749390657</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="J3">
-        <v>0.7969176749390657</v>
+        <v>0.2237994865827619</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.77203084652974</v>
+        <v>2.818892666666667</v>
       </c>
       <c r="N3">
-        <v>2.77203084652974</v>
+        <v>8.456678</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9045693777754769</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9045693777754769</v>
       </c>
       <c r="Q3">
-        <v>106.9240183975269</v>
+        <v>40.93336498444911</v>
       </c>
       <c r="R3">
-        <v>106.9240183975269</v>
+        <v>368.400284860042</v>
       </c>
       <c r="S3">
-        <v>0.7969176749390657</v>
+        <v>0.2024421623246401</v>
       </c>
       <c r="T3">
-        <v>0.7969176749390657</v>
+        <v>0.2024421623246401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>14.52107966666667</v>
+      </c>
+      <c r="H4">
+        <v>43.563239</v>
+      </c>
+      <c r="I4">
+        <v>0.2237994865827619</v>
+      </c>
+      <c r="J4">
+        <v>0.2237994865827619</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.01994566666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.059837</v>
+      </c>
+      <c r="O4">
+        <v>0.006400470475280153</v>
+      </c>
+      <c r="P4">
+        <v>0.006400470475280153</v>
+      </c>
+      <c r="Q4">
+        <v>0.2896326146714445</v>
+      </c>
+      <c r="R4">
+        <v>2.606693532043</v>
+      </c>
+      <c r="S4">
+        <v>0.001432422006255824</v>
+      </c>
+      <c r="T4">
+        <v>0.001432422006255824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>14.52107966666667</v>
+      </c>
+      <c r="H5">
+        <v>43.563239</v>
+      </c>
+      <c r="I5">
+        <v>0.2237994865827619</v>
+      </c>
+      <c r="J5">
+        <v>0.2237994865827619</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.26703</v>
+      </c>
+      <c r="N5">
+        <v>0.80109</v>
+      </c>
+      <c r="O5">
+        <v>0.08568866910176275</v>
+      </c>
+      <c r="P5">
+        <v>0.08568866910176275</v>
+      </c>
+      <c r="Q5">
+        <v>3.87756390339</v>
+      </c>
+      <c r="R5">
+        <v>34.89807513051</v>
+      </c>
+      <c r="S5">
+        <v>0.01917708015093467</v>
+      </c>
+      <c r="T5">
+        <v>0.01917708015093467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.879354321998809</v>
-      </c>
-      <c r="H4">
-        <v>0.879354321998809</v>
-      </c>
-      <c r="I4">
-        <v>0.0181677083066805</v>
-      </c>
-      <c r="J4">
-        <v>0.0181677083066805</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.77203084652974</v>
-      </c>
-      <c r="N4">
-        <v>2.77203084652974</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>2.437597305609944</v>
-      </c>
-      <c r="R4">
-        <v>2.437597305609944</v>
-      </c>
-      <c r="S4">
-        <v>0.0181677083066805</v>
-      </c>
-      <c r="T4">
-        <v>0.0181677083066805</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>9.234235</v>
+      </c>
+      <c r="H6">
+        <v>27.702705</v>
+      </c>
+      <c r="I6">
+        <v>0.1423184156704627</v>
+      </c>
+      <c r="J6">
+        <v>0.1423184156704627</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.010413</v>
+      </c>
+      <c r="N6">
+        <v>0.031239</v>
+      </c>
+      <c r="O6">
+        <v>0.003341482647480266</v>
+      </c>
+      <c r="P6">
+        <v>0.003341482647480266</v>
+      </c>
+      <c r="Q6">
+        <v>0.096156089055</v>
+      </c>
+      <c r="R6">
+        <v>0.8654048014949999</v>
+      </c>
+      <c r="S6">
+        <v>0.0004755545163797346</v>
+      </c>
+      <c r="T6">
+        <v>0.0004755545163797346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>9.234235</v>
+      </c>
+      <c r="H7">
+        <v>27.702705</v>
+      </c>
+      <c r="I7">
+        <v>0.1423184156704627</v>
+      </c>
+      <c r="J7">
+        <v>0.1423184156704627</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.818892666666667</v>
+      </c>
+      <c r="N7">
+        <v>8.456678</v>
+      </c>
+      <c r="O7">
+        <v>0.9045693777754769</v>
+      </c>
+      <c r="P7">
+        <v>0.9045693777754769</v>
+      </c>
+      <c r="Q7">
+        <v>26.03031732377667</v>
+      </c>
+      <c r="R7">
+        <v>234.27285591399</v>
+      </c>
+      <c r="S7">
+        <v>0.1287368807090221</v>
+      </c>
+      <c r="T7">
+        <v>0.1287368807090221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9.234235</v>
+      </c>
+      <c r="H8">
+        <v>27.702705</v>
+      </c>
+      <c r="I8">
+        <v>0.1423184156704627</v>
+      </c>
+      <c r="J8">
+        <v>0.1423184156704627</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01994566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.059837</v>
+      </c>
+      <c r="O8">
+        <v>0.006400470475280153</v>
+      </c>
+      <c r="P8">
+        <v>0.006400470475280153</v>
+      </c>
+      <c r="Q8">
+        <v>0.1841829732316667</v>
+      </c>
+      <c r="R8">
+        <v>1.657646759085</v>
+      </c>
+      <c r="S8">
+        <v>0.0009109048175874445</v>
+      </c>
+      <c r="T8">
+        <v>0.0009109048175874445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.234235</v>
+      </c>
+      <c r="H9">
+        <v>27.702705</v>
+      </c>
+      <c r="I9">
+        <v>0.1423184156704627</v>
+      </c>
+      <c r="J9">
+        <v>0.1423184156704627</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.26703</v>
+      </c>
+      <c r="N9">
+        <v>0.80109</v>
+      </c>
+      <c r="O9">
+        <v>0.08568866910176275</v>
+      </c>
+      <c r="P9">
+        <v>0.08568866910176275</v>
+      </c>
+      <c r="Q9">
+        <v>2.46581777205</v>
+      </c>
+      <c r="R9">
+        <v>22.19235994845</v>
+      </c>
+      <c r="S9">
+        <v>0.0121950756274734</v>
+      </c>
+      <c r="T9">
+        <v>0.0121950756274734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>40.17359466666667</v>
+      </c>
+      <c r="H10">
+        <v>120.520784</v>
+      </c>
+      <c r="I10">
+        <v>0.6191571196474152</v>
+      </c>
+      <c r="J10">
+        <v>0.6191571196474152</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.010413</v>
+      </c>
+      <c r="N10">
+        <v>0.031239</v>
+      </c>
+      <c r="O10">
+        <v>0.003341482647480266</v>
+      </c>
+      <c r="P10">
+        <v>0.003341482647480266</v>
+      </c>
+      <c r="Q10">
+        <v>0.418327641264</v>
+      </c>
+      <c r="R10">
+        <v>3.764948771376</v>
+      </c>
+      <c r="S10">
+        <v>0.002068902771365701</v>
+      </c>
+      <c r="T10">
+        <v>0.002068902771365701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>40.17359466666667</v>
+      </c>
+      <c r="H11">
+        <v>120.520784</v>
+      </c>
+      <c r="I11">
+        <v>0.6191571196474152</v>
+      </c>
+      <c r="J11">
+        <v>0.6191571196474152</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.818892666666667</v>
+      </c>
+      <c r="N11">
+        <v>8.456678</v>
+      </c>
+      <c r="O11">
+        <v>0.9045693777754769</v>
+      </c>
+      <c r="P11">
+        <v>0.9045693777754769</v>
+      </c>
+      <c r="Q11">
+        <v>113.2450513995058</v>
+      </c>
+      <c r="R11">
+        <v>1019.205462595552</v>
+      </c>
+      <c r="S11">
+        <v>0.5600705704647188</v>
+      </c>
+      <c r="T11">
+        <v>0.5600705704647188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>40.17359466666667</v>
+      </c>
+      <c r="H12">
+        <v>120.520784</v>
+      </c>
+      <c r="I12">
+        <v>0.6191571196474152</v>
+      </c>
+      <c r="J12">
+        <v>0.6191571196474152</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01994566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.059837</v>
+      </c>
+      <c r="O12">
+        <v>0.006400470475280153</v>
+      </c>
+      <c r="P12">
+        <v>0.006400470475280153</v>
+      </c>
+      <c r="Q12">
+        <v>0.8012891280231111</v>
+      </c>
+      <c r="R12">
+        <v>7.211602152208001</v>
+      </c>
+      <c r="S12">
+        <v>0.003962896863862782</v>
+      </c>
+      <c r="T12">
+        <v>0.003962896863862782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>40.17359466666667</v>
+      </c>
+      <c r="H13">
+        <v>120.520784</v>
+      </c>
+      <c r="I13">
+        <v>0.6191571196474152</v>
+      </c>
+      <c r="J13">
+        <v>0.6191571196474152</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.26703</v>
+      </c>
+      <c r="N13">
+        <v>0.80109</v>
+      </c>
+      <c r="O13">
+        <v>0.08568866910176275</v>
+      </c>
+      <c r="P13">
+        <v>0.08568866910176275</v>
+      </c>
+      <c r="Q13">
+        <v>10.72755498384</v>
+      </c>
+      <c r="R13">
+        <v>96.54799485456</v>
+      </c>
+      <c r="S13">
+        <v>0.05305474954746788</v>
+      </c>
+      <c r="T13">
+        <v>0.05305474954746788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9554203333333334</v>
+      </c>
+      <c r="H14">
+        <v>2.866261</v>
+      </c>
+      <c r="I14">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="J14">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.010413</v>
+      </c>
+      <c r="N14">
+        <v>0.031239</v>
+      </c>
+      <c r="O14">
+        <v>0.003341482647480266</v>
+      </c>
+      <c r="P14">
+        <v>0.003341482647480266</v>
+      </c>
+      <c r="Q14">
+        <v>0.009948791931000001</v>
+      </c>
+      <c r="R14">
+        <v>0.08953912737900001</v>
+      </c>
+      <c r="S14">
+        <v>4.920325880353903E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.920325880353903E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9554203333333334</v>
+      </c>
+      <c r="H15">
+        <v>2.866261</v>
+      </c>
+      <c r="I15">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="J15">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.818892666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.456678</v>
+      </c>
+      <c r="O15">
+        <v>0.9045693777754769</v>
+      </c>
+      <c r="P15">
+        <v>0.9045693777754769</v>
+      </c>
+      <c r="Q15">
+        <v>2.693227371217556</v>
+      </c>
+      <c r="R15">
+        <v>24.239046340958</v>
+      </c>
+      <c r="S15">
+        <v>0.01331976427709577</v>
+      </c>
+      <c r="T15">
+        <v>0.01331976427709577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9554203333333334</v>
+      </c>
+      <c r="H16">
+        <v>2.866261</v>
+      </c>
+      <c r="I16">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="J16">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01994566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.059837</v>
+      </c>
+      <c r="O16">
+        <v>0.006400470475280153</v>
+      </c>
+      <c r="P16">
+        <v>0.006400470475280153</v>
+      </c>
+      <c r="Q16">
+        <v>0.01905649549522222</v>
+      </c>
+      <c r="R16">
+        <v>0.171508459457</v>
+      </c>
+      <c r="S16">
+        <v>9.424678757410177E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.424678757410177E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9554203333333334</v>
+      </c>
+      <c r="H17">
+        <v>2.866261</v>
+      </c>
+      <c r="I17">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="J17">
+        <v>0.01472497809936019</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.26703</v>
+      </c>
+      <c r="N17">
+        <v>0.80109</v>
+      </c>
+      <c r="O17">
+        <v>0.08568866910176275</v>
+      </c>
+      <c r="P17">
+        <v>0.08568866910176275</v>
+      </c>
+      <c r="Q17">
+        <v>0.25512589161</v>
+      </c>
+      <c r="R17">
+        <v>2.29613302449</v>
+      </c>
+      <c r="S17">
+        <v>0.001261763775886779</v>
+      </c>
+      <c r="T17">
+        <v>0.001261763775886779</v>
       </c>
     </row>
   </sheetData>
